--- a/Excel-XLSX/UN-HAI.xlsx
+++ b/Excel-XLSX/UN-HAI.xlsx
@@ -87,7 +87,106 @@
     <t>1</t>
   </si>
   <si>
-    <t>G8a1j0</t>
+    <t>mQQ3bM</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
   </si>
   <si>
     <t>2000</t>
@@ -102,97 +201,46 @@
     <t>MEX</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>216</t>
@@ -210,67 +258,19 @@
     <t>977</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>16</t>
   </si>
   <si>
     <t>2302</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2018</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>2992</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2020</t>
   </si>
 </sst>
 </file>
@@ -775,10 +775,10 @@
         <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>32</v>
@@ -795,8 +795,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -843,7 +843,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>32</v>
@@ -863,8 +863,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -878,22 +878,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -911,7 +911,7 @@
         <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>32</v>
@@ -931,8 +931,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -946,22 +946,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -979,7 +979,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>32</v>
@@ -999,8 +999,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1014,22 +1014,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1047,7 +1047,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>32</v>
@@ -1067,8 +1067,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1082,22 +1082,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1115,7 +1115,7 @@
         <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>32</v>
@@ -1135,8 +1135,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1150,22 +1150,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1183,7 +1183,7 @@
         <v>32</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>32</v>
@@ -1203,8 +1203,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1218,22 +1218,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1248,10 +1248,10 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1271,8 +1271,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1286,22 +1286,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1316,10 +1316,10 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1339,8 +1339,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1354,22 +1354,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1387,7 +1387,7 @@
         <v>32</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
@@ -1399,7 +1399,7 @@
         <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>32</v>
@@ -1407,8 +1407,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1422,22 +1422,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1452,13 +1452,13 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>32</v>
@@ -1475,8 +1475,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1490,22 +1490,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1523,7 +1523,7 @@
         <v>32</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>32</v>
@@ -1535,7 +1535,7 @@
         <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>32</v>
@@ -1543,8 +1543,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1588,10 +1588,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>32</v>
@@ -1611,8 +1611,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+      <c r="V14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1629,19 +1629,19 @@
         <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1656,7 +1656,7 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
@@ -1671,7 +1671,7 @@
         <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>32</v>
@@ -1679,8 +1679,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
+      <c r="V15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1694,22 +1694,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1739,7 +1739,7 @@
         <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>32</v>
@@ -1747,8 +1747,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
+      <c r="V16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1762,22 +1762,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1792,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
@@ -1807,7 +1807,7 @@
         <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>32</v>
@@ -1815,8 +1815,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>32</v>
+      <c r="V17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1830,22 +1830,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1863,7 +1863,7 @@
         <v>32</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>32</v>
@@ -1875,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>32</v>
@@ -1883,8 +1883,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+      <c r="V18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -1901,19 +1901,19 @@
         <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -1931,7 +1931,7 @@
         <v>32</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>32</v>
@@ -1943,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>32</v>
@@ -1951,8 +1951,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-HAI.xlsx
+++ b/Excel-XLSX/UN-HAI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>mQQ3bM</t>
+    <t>o7BRg5</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>2009</t>
@@ -102,45 +138,21 @@
     <t>CUB</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2012</t>
   </si>
   <si>
@@ -153,12 +165,12 @@
     <t>8</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
@@ -168,16 +180,22 @@
     <t>ETH</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>10</t>
+    <t>313901</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>112</t>
@@ -189,6 +207,9 @@
     <t>LKA</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
@@ -201,7 +222,7 @@
     <t>MEX</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
   </si>
   <si>
     <t>2019</t>
@@ -219,13 +240,13 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>13</t>
+    <t>15</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>14</t>
+    <t>16</t>
   </si>
   <si>
     <t>2018</t>
@@ -240,7 +261,7 @@
     <t>YEM</t>
   </si>
   <si>
-    <t>15</t>
+    <t>17</t>
   </si>
   <si>
     <t>216</t>
@@ -258,16 +279,16 @@
     <t>977</t>
   </si>
   <si>
-    <t>16</t>
+    <t>18</t>
   </si>
   <si>
     <t>2302</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>2992</t>
@@ -655,7 +676,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -775,28 +796,28 @@
         <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +837,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -843,7 +864,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>32</v>
@@ -863,8 +884,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -878,22 +899,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -931,8 +952,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -946,22 +967,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -979,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>32</v>
@@ -999,8 +1020,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1014,22 +1035,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1047,7 +1068,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>32</v>
@@ -1067,8 +1088,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1082,22 +1103,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1115,7 +1136,7 @@
         <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>32</v>
@@ -1135,8 +1156,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1150,22 +1171,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1183,7 +1204,7 @@
         <v>32</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>32</v>
@@ -1203,8 +1224,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1218,22 +1239,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1248,10 +1269,10 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1271,8 +1292,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1286,22 +1307,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1316,7 +1337,7 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>32</v>
@@ -1339,8 +1360,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1354,22 +1375,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1384,10 +1405,10 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
@@ -1407,8 +1428,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1422,22 +1443,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1458,10 +1479,10 @@
         <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>32</v>
@@ -1475,8 +1496,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1490,22 +1511,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1523,7 +1544,7 @@
         <v>32</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>32</v>
@@ -1543,8 +1564,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1558,22 +1579,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1591,10 +1612,10 @@
         <v>32</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>32</v>
@@ -1611,8 +1632,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1626,19 +1647,19 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>73</v>
@@ -1656,10 +1677,10 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>32</v>
@@ -1679,8 +1700,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1697,19 +1718,19 @@
         <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1727,7 +1748,7 @@
         <v>32</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>32</v>
@@ -1739,7 +1760,7 @@
         <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>32</v>
@@ -1747,8 +1768,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1762,22 +1783,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1792,7 +1813,7 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
@@ -1807,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>32</v>
@@ -1815,8 +1836,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1830,22 +1851,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1875,7 +1896,7 @@
         <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>32</v>
@@ -1883,8 +1904,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -1898,22 +1919,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -1943,7 +1964,7 @@
         <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>32</v>
@@ -1951,8 +1972,144 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-HAI.xlsx
+++ b/Excel-XLSX/UN-HAI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,192 @@
     <t>o7BRg5</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
@@ -102,196 +288,25 @@
     <t>COD</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2017</t>
+    <t>20</t>
   </si>
   <si>
     <t>313901</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>977</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2992</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>578074</t>
   </si>
 </sst>
 </file>
@@ -676,7 +691,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -799,7 +814,7 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>32</v>
@@ -811,7 +826,7 @@
         <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
@@ -902,19 +917,19 @@
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -932,7 +947,7 @@
         <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>32</v>
@@ -967,10 +982,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>37</v>
@@ -1000,7 +1015,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>32</v>
@@ -1038,7 +1053,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>37</v>
@@ -1068,7 +1083,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>32</v>
@@ -1106,7 +1121,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
@@ -1136,7 +1151,7 @@
         <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>32</v>
@@ -1171,10 +1186,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>37</v>
@@ -1204,7 +1219,7 @@
         <v>32</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>32</v>
@@ -1239,22 +1254,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1310,19 +1325,19 @@
         <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1337,10 +1352,10 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1375,22 +1390,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1405,7 +1420,7 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>32</v>
@@ -1420,7 +1435,7 @@
         <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>32</v>
@@ -1443,22 +1458,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1473,7 +1488,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>32</v>
@@ -1482,7 +1497,7 @@
         <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>32</v>
@@ -1511,19 +1526,19 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>62</v>
@@ -1544,7 +1559,7 @@
         <v>32</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>32</v>
@@ -1556,7 +1571,7 @@
         <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>32</v>
@@ -1579,22 +1594,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1609,13 +1624,13 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>32</v>
@@ -1647,22 +1662,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1680,7 +1695,7 @@
         <v>32</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>32</v>
@@ -1692,7 +1707,7 @@
         <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>32</v>
@@ -1715,52 +1730,52 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>32</v>
@@ -1783,22 +1798,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1851,23 +1866,23 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1884,7 +1899,7 @@
         <v>32</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>32</v>
@@ -1896,7 +1911,7 @@
         <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>32</v>
@@ -1919,23 +1934,23 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1952,7 +1967,7 @@
         <v>32</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>32</v>
@@ -1964,7 +1979,7 @@
         <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>32</v>
@@ -1987,22 +2002,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2032,10 +2047,10 @@
         <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>34</v>
@@ -2058,19 +2073,19 @@
         <v>90</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2094,13 +2109,13 @@
         <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>32</v>
@@ -2109,6 +2124,210 @@
         <v>34</v>
       </c>
       <c r="V21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V24" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-HAI.xlsx
+++ b/Excel-XLSX/UN-HAI.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>o7BRg5</t>
+    <t>bUBYk7</t>
   </si>
   <si>
     <t>2000</t>
@@ -306,7 +306,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>578074</t>
+    <t>1037463</t>
   </si>
 </sst>
 </file>
